--- a/biology/Botanique/Clinostigma/Clinostigma.xlsx
+++ b/biology/Botanique/Clinostigma/Clinostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinostigma est un genre de la famille des Arecaceae (Palmiers), comprenant des espèces natives de l'archipel d'Ogasawara au Japon jusqu'à l'archipel Bismarck au large de la Nouvelle-Guinée.
 Ce genre possède les synonymes suivants :
@@ -515,7 +527,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae</t>
@@ -546,9 +560,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 juin 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 juin 2012) :
 Clinostigma carolinense (Becc.) H.E.Moore &amp; Fosberg (1956)
 Clinostigma collegarum J.Dransf. (1982)
 Clinostigma exorrhizum (H.Wendl.) Becc., Nuovo Giorn. Bot. Ital., n.s. (1935)
@@ -560,7 +576,7 @@
 Clinostigma samoense H.Wendl. (1862)
 Clinostigma savoryanum (Rehder &amp; E.H.Wilson) H.E.Moore &amp; Fosberg (1956)
 Clinostigma warburgii Becc., Atti Soc. Tosc. Sci. Nat. Pisa (1934)
-Selon Catalogue of Life                                   (5 juin 2012)[2] :
+Selon Catalogue of Life                                   (5 juin 2012) :
 Clinostigma carolinense
 Clinostigma collegarum
 Clinostigma exorrhizum
@@ -572,7 +588,7 @@
 Clinostigma samoense
 Clinostigma savoryanum
 Clinostigma warburgii
-Selon NCBI  (5 juin 2012)[3] :
+Selon NCBI  (5 juin 2012) :
 Clinostigma exorrhizum
 Clinostigma savoryanum</t>
         </is>
